--- a/Data/aearep-1143/candidatepackages.xlsx
+++ b/Data/aearep-1143/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="141">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,9 +25,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
@@ -37,72 +34,72 @@
     <t>unique</t>
   </si>
   <si>
+    <t>diff</t>
+  </si>
+  <si>
     <t>spmap</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>binscatter</t>
   </si>
   <si>
     <t>shp2dta</t>
   </si>
   <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>missings</t>
+  </si>
+  <si>
     <t>carryforward</t>
   </si>
   <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>missings</t>
+    <t>gtools</t>
   </si>
   <si>
     <t>ivreghdfe</t>
   </si>
   <si>
-    <t>gtools</t>
-  </si>
-  <si>
     <t>hdfe</t>
   </si>
   <si>
+    <t>texsave</t>
+  </si>
+  <si>
     <t>tsegen</t>
   </si>
   <si>
-    <t>texsave</t>
+    <t>geoinpoly</t>
   </si>
   <si>
     <t>geonear</t>
   </si>
   <si>
-    <t>geoinpoly</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>sumup</t>
   </si>
   <si>
     <t>surface</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
     <t>project</t>
   </si>
   <si>
     <t>metadata</t>
   </si>
   <si>
-    <t>sq</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
@@ -121,81 +118,69 @@
     <t>running</t>
   </si>
   <si>
-    <t>poverty</t>
-  </si>
-  <si>
     <t>concord</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
     <t>heart</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>googleplaces</t>
   </si>
   <si>
     <t>combine</t>
   </si>
   <si>
+    <t>pre</t>
+  </si>
+  <si>
     <t>nearest</t>
   </si>
   <si>
+    <t>effects</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
-    <t>effects</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>unemp</t>
   </si>
   <si>
     <t>contour</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>unemp</t>
-  </si>
-  <si>
     <t>usd</t>
   </si>
   <si>
+    <t>grand</t>
+  </si>
+  <si>
     <t>majority</t>
   </si>
   <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>williams</t>
+  </si>
+  <si>
+    <t>sto</t>
+  </si>
+  <si>
     <t>switch</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>sto</t>
-  </si>
-  <si>
-    <t>williams</t>
-  </si>
-  <si>
     <t>resp</t>
   </si>
   <si>
@@ -211,9 +196,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1143</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1143/120128/code</t>
   </si>
   <si>
@@ -256,18 +238,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1143/120128/code/3.1.counterfactual</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1143/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>0.0.MASTER_RUN_ME.do</t>
   </si>
   <si>
@@ -464,9 +437,6 @@
   </si>
   <si>
     <t>4.1.4.create_histogram_data_for_r.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -510,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -518,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -532,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -556,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -568,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -580,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -592,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -604,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -616,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -640,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -652,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -664,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -676,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -688,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -700,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -712,7 +682,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -724,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -736,7 +706,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -748,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -760,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -772,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -784,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -796,10 +766,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>332</v>
+        <v>499</v>
       </c>
       <c r="C24">
-        <v>0.1100795790553093</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D24"/>
     </row>
@@ -808,10 +778,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>420</v>
+        <v>525</v>
       </c>
       <c r="C25">
-        <v>0.13925729691982269</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D25"/>
     </row>
@@ -820,10 +790,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="C26">
-        <v>0.16677719354629517</v>
+        <v>0.17487603425979614</v>
       </c>
       <c r="D26"/>
     </row>
@@ -832,10 +802,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="C27">
-        <v>0.17307692766189575</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D27"/>
     </row>
@@ -844,10 +814,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="C28">
-        <v>0.18667109310626984</v>
+        <v>0.18181818723678589</v>
       </c>
       <c r="D28"/>
     </row>
@@ -856,10 +826,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C29">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D29"/>
     </row>
@@ -868,10 +838,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="C30">
-        <v>0.18766577541828156</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D30"/>
     </row>
@@ -880,10 +850,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>606</v>
+        <v>706</v>
       </c>
       <c r="C31">
-        <v>0.20092837512493134</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D31"/>
     </row>
@@ -892,10 +862,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="C32">
-        <v>0.23010610044002533</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D32"/>
     </row>
@@ -904,10 +874,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>745</v>
+        <v>873</v>
       </c>
       <c r="C33">
-        <v>0.24701590836048126</v>
+        <v>0.288595050573349</v>
       </c>
       <c r="D33"/>
     </row>
@@ -916,10 +886,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>757</v>
+        <v>884</v>
       </c>
       <c r="C34">
-        <v>0.25099468231201172</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D34"/>
     </row>
@@ -928,10 +898,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>797</v>
+        <v>926</v>
       </c>
       <c r="C35">
-        <v>0.2642572820186615</v>
+        <v>0.30611571669578552</v>
       </c>
       <c r="D35"/>
     </row>
@@ -940,10 +910,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>811</v>
+        <v>955</v>
       </c>
       <c r="C36">
-        <v>0.26889920234680176</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D36"/>
     </row>
@@ -952,10 +922,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>915</v>
+        <v>998</v>
       </c>
       <c r="C37">
-        <v>0.30338194966316223</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D37"/>
     </row>
@@ -964,10 +934,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>985</v>
+        <v>1101</v>
       </c>
       <c r="C38">
-        <v>0.32659152150154114</v>
+        <v>0.36396694183349609</v>
       </c>
       <c r="D38"/>
     </row>
@@ -976,10 +946,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1049</v>
+        <v>1336</v>
       </c>
       <c r="C39">
-        <v>0.34781166911125183</v>
+        <v>0.44165289402008057</v>
       </c>
       <c r="D39"/>
     </row>
@@ -988,10 +958,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1124</v>
+        <v>1414</v>
       </c>
       <c r="C40">
-        <v>0.37267905473709106</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D40"/>
     </row>
@@ -1000,10 +970,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1133</v>
+        <v>1428</v>
       </c>
       <c r="C41">
-        <v>0.37566313147544861</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D41"/>
     </row>
@@ -1012,10 +982,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1338</v>
+        <v>1469</v>
       </c>
       <c r="C42">
-        <v>0.44363394379615784</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D42"/>
     </row>
@@ -1024,10 +994,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1423</v>
+        <v>1497</v>
       </c>
       <c r="C43">
-        <v>0.47181698679924011</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D43"/>
     </row>
@@ -1036,10 +1006,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1444</v>
+        <v>1561</v>
       </c>
       <c r="C44">
-        <v>0.47877985239028931</v>
+        <v>0.51603305339813232</v>
       </c>
       <c r="D44"/>
     </row>
@@ -1048,10 +1018,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1464</v>
+        <v>1564</v>
       </c>
       <c r="C45">
-        <v>0.485411137342453</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D45"/>
     </row>
@@ -1060,10 +1030,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1553</v>
+        <v>1658</v>
       </c>
       <c r="C46">
-        <v>0.51492041349411011</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D46"/>
     </row>
@@ -1072,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1565</v>
+        <v>1838</v>
       </c>
       <c r="C47">
-        <v>0.51889920234680176</v>
+        <v>0.60760331153869629</v>
       </c>
       <c r="D47"/>
     </row>
@@ -1084,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1660</v>
+        <v>1858</v>
       </c>
       <c r="C48">
-        <v>0.55039787292480469</v>
+        <v>0.61421489715576172</v>
       </c>
       <c r="D48"/>
     </row>
@@ -1096,10 +1066,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1798</v>
+        <v>2008</v>
       </c>
       <c r="C49">
-        <v>0.5961538553237915</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D49"/>
     </row>
@@ -1108,10 +1078,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1817</v>
+        <v>2218</v>
       </c>
       <c r="C50">
-        <v>0.60245358943939209</v>
+        <v>0.73322314023971558</v>
       </c>
       <c r="D50"/>
     </row>
@@ -1120,10 +1090,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1844</v>
+        <v>2416</v>
       </c>
       <c r="C51">
-        <v>0.61140584945678711</v>
+        <v>0.79867768287658691</v>
       </c>
       <c r="D51"/>
     </row>
@@ -1132,10 +1102,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1859</v>
+        <v>2436</v>
       </c>
       <c r="C52">
-        <v>0.61637932062149048</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D52"/>
     </row>
@@ -1144,10 +1114,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2000</v>
+        <v>2715</v>
       </c>
       <c r="C53">
-        <v>0.66312998533248901</v>
+        <v>0.89752066135406494</v>
       </c>
       <c r="D53"/>
     </row>
@@ -1156,10 +1126,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2217</v>
+        <v>2785</v>
       </c>
       <c r="C54">
-        <v>0.73507958650588989</v>
+        <v>0.92066115140914917</v>
       </c>
       <c r="D54"/>
     </row>
@@ -1168,10 +1138,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2357</v>
+        <v>2806</v>
       </c>
       <c r="C55">
-        <v>0.78149867057800293</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D55"/>
     </row>
@@ -1180,72 +1150,12 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2367</v>
+        <v>2977</v>
       </c>
       <c r="C56">
-        <v>0.78481429815292358</v>
+        <v>0.98413223028182983</v>
       </c>
       <c r="D56"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>2424</v>
-      </c>
-      <c r="C57">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D57"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>2430</v>
-      </c>
-      <c r="C58">
-        <v>0.80570292472839355</v>
-      </c>
-      <c r="D58"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>2714</v>
-      </c>
-      <c r="C59">
-        <v>0.89986735582351685</v>
-      </c>
-      <c r="D59"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>2716</v>
-      </c>
-      <c r="C60">
-        <v>0.90053051710128784</v>
-      </c>
-      <c r="D60"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>2989</v>
-      </c>
-      <c r="C61">
-        <v>0.99104773998260498</v>
-      </c>
-      <c r="D61"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1253,567 +1163,543 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B67"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
